--- a/Jogos_do_Dia/2023-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="L2" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="M2" t="n">
         <v>1.38</v>
@@ -718,10 +718,10 @@
         <v>3.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
         <v>1.65</v>
@@ -830,13 +830,13 @@
         <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>9.550000000000001</v>
+        <v>8.34</v>
       </c>
       <c r="K3" t="n">
-        <v>5.55</v>
+        <v>5.09</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.29</v>
@@ -857,10 +857,10 @@
         <v>4.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="T3" t="n">
-        <v>2.26</v>
+        <v>2.01</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -935,7 +935,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -951,130 +951,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.51</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.08</v>
+        <v>3.97</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>2.95</v>
+        <v>1.85</v>
       </c>
       <c r="M4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.3</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>1.28</v>
       </c>
-      <c r="Y4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Z4" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.43</v>
+        <v>1.88</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AJ4" t="n">
         <v>1.43</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1090,124 +1090,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>3.51</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>2.33</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.87</v>
       </c>
       <c r="L5" t="n">
-        <v>1.76</v>
+        <v>2.85</v>
       </c>
       <c r="M5" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="R5" t="n">
-        <v>4.2</v>
+        <v>4.72</v>
       </c>
       <c r="S5" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="T5" t="n">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE5" t="n">
         <v>1.75</v>
       </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.23</v>
-      </c>
       <c r="AF5" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.88</v>
+        <v>2.43</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AJ5" t="n">
         <v>1.43</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.63</v>
+        <v>2.93</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>3.34</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="L6" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.29</v>
@@ -1277,7 +1277,7 @@
         <v>1.58</v>
       </c>
       <c r="T6" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>1.52</v>

--- a/Jogos_do_Dia/2023-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.53</v>
+        <v>2.28</v>
       </c>
       <c r="K2" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.38</v>
@@ -718,10 +718,10 @@
         <v>3.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>1.65</v>
@@ -739,10 +739,10 @@
         <v>1.48</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AB2" t="n">
         <v>1.45</v>
@@ -830,13 +830,13 @@
         <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>8.34</v>
+        <v>5.8</v>
       </c>
       <c r="K3" t="n">
-        <v>5.09</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.29</v>
@@ -857,10 +857,10 @@
         <v>4.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.01</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -878,10 +878,10 @@
         <v>1.12</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AB3" t="n">
         <v>1.38</v>
@@ -969,13 +969,13 @@
         <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.97</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -996,10 +996,10 @@
         <v>4.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1017,10 +1017,10 @@
         <v>1.28</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AB4" t="n">
         <v>1.17</v>
@@ -1108,13 +1108,13 @@
         <v>3.51</v>
       </c>
       <c r="J5" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.87</v>
+        <v>3.68</v>
       </c>
       <c r="L5" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M5" t="n">
         <v>1.3</v>
@@ -1135,10 +1135,10 @@
         <v>4.72</v>
       </c>
       <c r="S5" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.58</v>
@@ -1156,10 +1156,10 @@
         <v>1.67</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>1.51</v>
@@ -1247,13 +1247,13 @@
         <v>3.34</v>
       </c>
       <c r="J6" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.79</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="M6" t="n">
         <v>1.29</v>
@@ -1274,10 +1274,10 @@
         <v>4.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
         <v>1.52</v>
